--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>To be implemented - dynamic</t>
+  </si>
+  <si>
+    <t>Grid paging</t>
+  </si>
+  <si>
+    <t>Paging with 'Page 1 of 10) . Display how many records. NEXT,PREVIOUS,FIRST,LAST</t>
+  </si>
+  <si>
+    <t>Logged in user display</t>
+  </si>
+  <si>
+    <t>On the TOP RIGHT where the logged in user details are show, please show ROLE as well</t>
+  </si>
+  <si>
+    <t>Menu scrolling</t>
+  </si>
+  <si>
+    <t>Separate scroll bar to be given for menu. It should not scroll down with the page body</t>
+  </si>
+  <si>
+    <t>Top header freeze</t>
+  </si>
+  <si>
+    <t>The top header to be frozen and should not move while scrolling</t>
+  </si>
+  <si>
+    <t>Scrolling issue</t>
+  </si>
+  <si>
+    <t>Assume that we are at the bottom of a page. Then if we press another menu, then we have to scroll up to go to top</t>
   </si>
 </sst>
 </file>
@@ -188,7 +218,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -207,69 +237,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -572,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,60 +753,100 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44047</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44047</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6">
+        <v>44047</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="6">
+        <v>44047</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6">
+        <v>44047</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
@@ -1953,24 +1960,24 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="G3:G11 G13:G126">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>No.</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Assume that we are at the bottom of a page. Then if we press another menu, then we have to scroll up to go to top</t>
+  </si>
+  <si>
+    <t>Menu search</t>
+  </si>
+  <si>
+    <t>There is a SEARCH box above the MENU. If this can be made functional, pls do it. Otherwise remove it.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
   <dimension ref="B2:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,16 +854,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6">
+        <v>44047</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="3">

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>No.</t>
   </si>
@@ -103,6 +98,9 @@
   </si>
   <si>
     <t>To be implemented - dynamic</t>
+  </si>
+  <si>
+    <t>Need to check once</t>
   </si>
 </sst>
 </file>
@@ -188,7 +186,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -207,69 +205,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G126"/>
+  <dimension ref="B2:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,10 +519,12 @@
     <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.36328125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="22.54296875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -625,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>B3+1</f>
         <v>2</v>
@@ -642,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
@@ -661,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -676,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -693,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -708,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -725,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -743,10 +680,10 @@
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -767,7 +704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -783,10 +720,13 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -797,7 +737,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -808,7 +748,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -819,7 +759,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1953,24 +1893,24 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="G3:G11 G13:G126">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Need to check once</t>
+  </si>
+  <si>
+    <t>Changed By</t>
+  </si>
+  <si>
+    <t>Recorded By</t>
+  </si>
+  <si>
+    <t>Renju</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -225,7 +234,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -497,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H126"/>
+  <dimension ref="B2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,15 +525,15 @@
     <col min="1" max="1" width="3.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="4"/>
-    <col min="8" max="8" width="22.54296875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="4"/>
+    <col min="4" max="5" width="37.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="22.54296875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,16 +544,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -554,15 +569,18 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6">
         <v>43894</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>B3+1</f>
         <v>2</v>
@@ -573,13 +591,16 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
@@ -590,15 +611,16 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6">
         <v>43894</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -609,11 +631,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -622,15 +645,18 @@
         <v>12</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -641,11 +667,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -654,15 +681,18 @@
         <v>14</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="6">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6">
         <v>43925</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -673,17 +703,20 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6">
         <v>43925</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -694,17 +727,20 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6">
         <v>43925</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -715,18 +751,21 @@
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6">
         <v>43925</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -736,8 +775,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -747,8 +787,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -758,8 +799,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -769,8 +811,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -780,8 +823,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -791,8 +835,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -802,8 +847,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -813,8 +859,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -824,8 +871,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -835,8 +883,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -846,8 +895,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -857,8 +907,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -868,8 +919,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -879,8 +931,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -890,8 +943,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -901,8 +955,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -912,8 +967,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -923,8 +979,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -934,8 +991,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -945,8 +1003,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -956,8 +1015,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -967,8 +1027,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -978,8 +1039,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -989,8 +1051,9 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1000,8 +1063,9 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1011,8 +1075,9 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1022,8 +1087,9 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1033,8 +1099,9 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1044,8 +1111,9 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1055,8 +1123,9 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1066,8 +1135,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1077,8 +1147,9 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1088,8 +1159,9 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1099,8 +1171,9 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1110,8 +1183,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1121,8 +1195,9 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1132,8 +1207,9 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1143,8 +1219,9 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1154,8 +1231,9 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1165,8 +1243,9 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1176,8 +1255,9 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1187,8 +1267,9 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1198,8 +1279,9 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1209,8 +1291,9 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1220,8 +1303,9 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1231,8 +1315,9 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1242,8 +1327,9 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1253,8 +1339,9 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1264,8 +1351,9 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1275,8 +1363,9 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1286,8 +1375,9 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1297,8 +1387,9 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1308,8 +1399,9 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1319,8 +1411,9 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1330,8 +1423,9 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1341,8 +1435,9 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <f t="shared" ref="B69:B96" si="1">B68+1</f>
         <v>67</v>
@@ -1352,8 +1447,9 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1363,8 +1459,9 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1374,8 +1471,9 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1385,8 +1483,9 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1396,8 +1495,9 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1407,8 +1507,9 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1418,8 +1519,9 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1429,8 +1531,9 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1440,8 +1543,9 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1451,8 +1555,9 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="3">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1462,8 +1567,9 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1473,8 +1579,9 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="3">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1484,8 +1591,9 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1495,8 +1603,9 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="3">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1506,8 +1615,9 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="3">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1517,8 +1627,9 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="3">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1528,8 +1639,9 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="3">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1539,8 +1651,9 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1550,8 +1663,9 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1561,8 +1675,9 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -1572,8 +1687,9 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1583,8 +1699,9 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -1594,8 +1711,9 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -1605,8 +1723,9 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -1616,8 +1735,9 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -1627,8 +1747,9 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="3">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -1638,8 +1759,9 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -1649,261 +1771,292 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="G3:G11 G13:G126">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Pending"</formula>
+  <conditionalFormatting sqref="H3:H11 H13:H126">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Completed"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
@@ -1923,7 +2076,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G126</xm:sqref>
+          <xm:sqref>H3:H126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\General\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -506,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,8 +530,9 @@
     <col min="1" max="1" width="3.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="37.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.36328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="4"/>
     <col min="9" max="9" width="22.54296875" style="4" customWidth="1"/>

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Renju</t>
+  </si>
+  <si>
+    <t>Paging</t>
+  </si>
+  <si>
+    <t>Logged in user detailss display</t>
+  </si>
+  <si>
+    <t>Menu scroll</t>
+  </si>
+  <si>
+    <t>Top header freeze</t>
   </si>
 </sst>
 </file>
@@ -521,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,7 +788,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -788,7 +802,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -800,7 +816,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -812,7 +830,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>

--- a/General/General Requirements.xlsx
+++ b/General/General Requirements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Top header freeze</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="B2:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,7 +847,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
